--- a/biology/Botanique/Begonia_lansbergeae/Begonia_lansbergeae.xlsx
+++ b/biology/Botanique/Begonia_lansbergeae/Begonia_lansbergeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia lansbergeae est une espèce de plantes de la famille des Begoniaceae. Ce bégonia rhizomateux est originaire du Brésil.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bégonia rhizomateux est remarquable par son feuillage épais, vert émeraude, ainsi que par le duvet blanchâtre et soyeux qui recouvre toute la plante[2].
-Les feuilles, de forme plutôt ovale et pointue au sommet, mesurent de 15 à 16 cm de long pour 8 cm de large[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bégonia rhizomateux est remarquable par son feuillage épais, vert émeraude, ainsi que par le duvet blanchâtre et soyeux qui recouvre toute la plante.
+Les feuilles, de forme plutôt ovale et pointue au sommet, mesurent de 15 à 16 cm de long pour 8 cm de large.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Brésil[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Brésil.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia lansbergeae a été décrit en 1893 par les botanistes Lucien Linden (1851-1940) et Émile Rodigas (1831-1902). L'épithète spécifique lansbergeae signifie « de Lansberge », en hommage à Madame van Lansberge, épouse de l'ancien gouverneur des Indes néerlandaises, grand amateur d'horticulture[2].
-L'espèce fait partie de la section Diploclinium, du genre  Begonia, famille des Begoniaceae. En classification phylogénétique APG IV (2016)[4], comme en classification phylogénétique APG III (2009)[5], celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981)[6] les Begoniaceae font partie de l'ordre des Violales.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia lansbergeae a été décrit en 1893 par les botanistes Lucien Linden (1851-1940) et Émile Rodigas (1831-1902). L'épithète spécifique lansbergeae signifie « de Lansberge », en hommage à Madame van Lansberge, épouse de l'ancien gouverneur des Indes néerlandaises, grand amateur d'horticulture.
+L'espèce fait partie de la section Diploclinium, du genre  Begonia, famille des Begoniaceae. En classification phylogénétique APG IV (2016), comme en classification phylogénétique APG III (2009), celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981) les Begoniaceae font partie de l'ordre des Violales.
 </t>
         </is>
       </c>
